--- a/fuction_ensemble_2/redes-ensemble-s/mse_sup/better_results_03.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/mse_sup/better_results_03.xlsx
@@ -75,53 +75,53 @@
     <t>Architecture</t>
   </si>
   <si>
-    <t>model_19_7_24</t>
-  </si>
-  <si>
-    <t>Hidden Size=[9], regularizer=0.05, learning_rate=0.01</t>
-  </si>
-  <si>
-    <t>model_10_8_23</t>
-  </si>
-  <si>
     <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.1</t>
   </si>
   <si>
-    <t>model_31_9_16</t>
-  </si>
-  <si>
-    <t>Hidden Size=[12], regularizer=0.05, learning_rate=0.01</t>
-  </si>
-  <si>
-    <t>model_23_9_24</t>
-  </si>
-  <si>
-    <t>Hidden Size=[20], regularizer=0.05, learning_rate=0.01</t>
-  </si>
-  <si>
-    <t>model_2_2_7</t>
-  </si>
-  <si>
-    <t>Hidden Size=[15], regularizer=0.2, learning_rate=0.1</t>
-  </si>
-  <si>
-    <t>model_14_5_24</t>
-  </si>
-  <si>
-    <t>Hidden Size=[18], regularizer=0.2, learning_rate=0.1</t>
-  </si>
-  <si>
-    <t>model_6_5_2</t>
-  </si>
-  <si>
-    <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+    <t>model_6_7_3</t>
+  </si>
+  <si>
+    <t>Hidden Size=[6], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_40_8_24</t>
+  </si>
+  <si>
+    <t>Hidden Size=[14], regularizer=0.05, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_24_8_7</t>
+  </si>
+  <si>
+    <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_10_5_9</t>
+  </si>
+  <si>
+    <t>model_20_5_1</t>
+  </si>
+  <si>
+    <t>Hidden Size=[9], regularizer=0.05, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_32_8_5</t>
+  </si>
+  <si>
+    <t>Hidden Size=[12], regularizer=0.05, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_16_5_1</t>
+  </si>
+  <si>
+    <t>Hidden Size=[8], regularizer=0.05, learning_rate=0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,14 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,16 +167,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -185,20 +184,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +197,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,491 +522,491 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.99922729448180903</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.74555246643870099</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.99924019329067404</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.99894735691984182</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.99917158126607486</v>
-      </c>
-      <c r="H2" s="5">
-        <v>4.5871137473852319E-4</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.1510510474831154</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2.7866768231797899E-4</v>
-      </c>
-      <c r="K2" s="5">
-        <v>5.6895891108691701E-4</v>
-      </c>
-      <c r="L2" s="5">
-        <v>4.2381329670244797E-4</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1.320485448129999E-2</v>
-      </c>
-      <c r="N2" s="5">
-        <v>2.1417548289627442E-2</v>
-      </c>
-      <c r="O2" s="5">
-        <v>1.001426533264353</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2.2329337660753849E-2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>89.374178717791011</v>
-      </c>
-      <c r="R2" s="5">
-        <v>134.47258423791439</v>
-      </c>
-      <c r="S2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.99996320430749719</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.99924673348407766</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.99999868564897099</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.99999999999994482</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.99999952776474199</v>
+      </c>
+      <c r="H2" s="10">
+        <v>3.4347163807143598E-5</v>
+      </c>
+      <c r="I2" s="10">
+        <v>7.031412280348575E-4</v>
+      </c>
+      <c r="J2" s="10">
+        <v>9.3466847108936854E-7</v>
+      </c>
+      <c r="K2" s="12">
+        <v>6.78732299646294E-14</v>
+      </c>
+      <c r="L2" s="10">
+        <v>4.6733426948129928E-7</v>
+      </c>
+      <c r="M2" s="10">
+        <v>2.8869305492610248E-4</v>
+      </c>
+      <c r="N2" s="10">
+        <v>5.8606453405016393E-3</v>
+      </c>
+      <c r="O2" s="10">
+        <v>1.000883096620067</v>
+      </c>
+      <c r="P2" s="10">
+        <v>6.1101451458551231E-3</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>70.557982220364849</v>
+      </c>
+      <c r="R2" s="10">
+        <v>101.02987784206989</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.98810406551743768</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.73155024114151557</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.99933325504582304</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.99999999999977285</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.99950547065225948</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7.0619405864614567E-3</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.1593633732841627</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3.4013255134832961E-4</v>
-      </c>
-      <c r="K3" s="5">
-        <v>3.1805832994424127E-14</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1.7006627569006769E-4</v>
-      </c>
-      <c r="M3" s="5">
-        <v>2.7112458962370439E-2</v>
-      </c>
-      <c r="N3" s="5">
-        <v>8.4035353194125723E-2</v>
-      </c>
-      <c r="O3" s="5">
-        <v>1.0571004855162991</v>
-      </c>
-      <c r="P3" s="5">
-        <v>8.7612912156762257E-2</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>67.906070789286773</v>
-      </c>
-      <c r="R3" s="5">
-        <v>103.2534697104646</v>
-      </c>
-      <c r="S3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.99998452865163512</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.9991389381953254</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.99999555988362909</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.99999999999920619</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.99999652541744244</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1.444182458493536E-5</v>
+      </c>
+      <c r="I3" s="10">
+        <v>8.03763398418822E-4</v>
+      </c>
+      <c r="J3" s="10">
+        <v>4.4677027057047106E-6</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1.17580211205325E-13</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2.2338513924233439E-6</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1.9711867339163711E-4</v>
+      </c>
+      <c r="N3" s="10">
+        <v>3.8002400693818491E-3</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1.00001125188972</v>
+      </c>
+      <c r="P3" s="10">
+        <v>3.9620241567168667E-3</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>136.29076415236881</v>
+      </c>
+      <c r="R3" s="10">
+        <v>205.76668616985631</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.99939440323561402</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.72597018242045075</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.99907636450575332</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.99964165949479511</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.99959946220604634</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3.595083997575989E-4</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.16267593718697251</v>
-      </c>
-      <c r="J4" s="5">
-        <v>8.3204350642275372E-5</v>
-      </c>
-      <c r="K4" s="5">
-        <v>4.0015723567541858E-4</v>
-      </c>
-      <c r="L4" s="5">
-        <v>2.4168079315884701E-4</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1.298260688862537E-2</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1.8960706731490761E-2</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1.00058137289381</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1.976790327112414E-2</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>113.86154603192919</v>
-      </c>
-      <c r="R4" s="5">
-        <v>173.58646145047101</v>
-      </c>
-      <c r="S4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>23</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.99999751193396524</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.99913782975296528</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.99999595897461635</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.99999242740312189</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.99999418132298368</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2.3225004299252839E-6</v>
+      </c>
+      <c r="I4" s="10">
+        <v>8.0479808070697118E-4</v>
+      </c>
+      <c r="J4" s="10">
+        <v>3.4753250099427841E-6</v>
+      </c>
+      <c r="K4" s="10">
+        <v>8.3364283130210463E-6</v>
+      </c>
+      <c r="L4" s="10">
+        <v>5.9058766614819147E-6</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1.333571634418896E-4</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1.523975206466721E-3</v>
+      </c>
+      <c r="O4" s="10">
+        <v>1.000003512563814</v>
+      </c>
+      <c r="P4" s="10">
+        <v>1.5888539860695889E-3</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>107.9457323622906</v>
+      </c>
+      <c r="R4" s="10">
+        <v>157.91964118188679</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.99961729240448916</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.74151454624524549</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.99984397643065825</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.99920905354252598</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.99978911177964491</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2.2719176080257959E-4</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.1534481313390206</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1.9762067144310581E-4</v>
-      </c>
-      <c r="K5" s="5">
-        <v>9.4760464059549381E-5</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1.4619056775132759E-4</v>
-      </c>
-      <c r="M5" s="5">
-        <v>8.2580697613353123E-3</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1.5072881635658781E-2</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1.0001611400402151</v>
-      </c>
-      <c r="P5" s="5">
-        <v>1.5714565412055161E-2</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>178.77943227169601</v>
-      </c>
-      <c r="R5" s="5">
-        <v>277.50837408602018</v>
-      </c>
-      <c r="S5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>25</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.99993386181262423</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.99912727534834467</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.99999999999995592</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.99999999999991018</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.99999999999994671</v>
+      </c>
+      <c r="H5" s="10">
+        <v>6.1737094784439787E-5</v>
+      </c>
+      <c r="I5" s="10">
+        <v>8.1465015413548095E-4</v>
+      </c>
+      <c r="J5" s="10">
+        <v>4.173359034451579E-14</v>
+      </c>
+      <c r="K5" s="10">
+        <v>2.2912006303154941E-14</v>
+      </c>
+      <c r="L5" s="10">
+        <v>3.2322798323835362E-14</v>
+      </c>
+      <c r="M5" s="10">
+        <v>4.885546030702877E-4</v>
+      </c>
+      <c r="N5" s="10">
+        <v>7.8572956406412365E-3</v>
+      </c>
+      <c r="O5" s="10">
+        <v>1.0003174632994041</v>
+      </c>
+      <c r="P5" s="10">
+        <v>8.1917969829075777E-3</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>77.385251191286045</v>
+      </c>
+      <c r="R5" s="10">
+        <v>112.7326501124639</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.99866579041534786</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.74008564665256815</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.99798120241485277</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.99950421978498538</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.99884307032023179</v>
-      </c>
-      <c r="H6" s="5">
-        <v>7.9204444430254169E-4</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.15429638786248229</v>
-      </c>
-      <c r="J6" s="5">
-        <v>9.969838578691595E-4</v>
-      </c>
-      <c r="K6" s="5">
-        <v>2.678380586199024E-4</v>
-      </c>
-      <c r="L6" s="5">
-        <v>6.3241095824453084E-4</v>
-      </c>
-      <c r="M6" s="5">
-        <v>6.3261746884036739E-3</v>
-      </c>
-      <c r="N6" s="5">
-        <v>2.8143284177624711E-2</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1.0008654332440989</v>
-      </c>
-      <c r="P6" s="5">
-        <v>2.9341402049695799E-2</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>136.28178610236139</v>
-      </c>
-      <c r="R6" s="5">
-        <v>210.6332114193217</v>
-      </c>
-      <c r="S6" s="5" t="s">
+      <c r="C6" s="10">
+        <v>0.99998053000825415</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.99911823163153113</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.99999999999996969</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.99999686363986662</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.99999981230279966</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1.8174382660932759E-5</v>
+      </c>
+      <c r="I6" s="10">
+        <v>8.2309206680765065E-4</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3.3114780960983982E-14</v>
+      </c>
+      <c r="K6" s="10">
+        <v>3.0667704974318881E-7</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1.5333854142898489E-7</v>
+      </c>
+      <c r="M6" s="10">
+        <v>2.7315157511683508E-4</v>
+      </c>
+      <c r="N6" s="10">
+        <v>4.263142345844525E-3</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1.0000359446001461</v>
+      </c>
+      <c r="P6" s="10">
+        <v>4.4446331414283724E-3</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>95.830995003015317</v>
+      </c>
+      <c r="R6" s="10">
+        <v>140.9294005231387</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.99996979713372403</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.73016392212346903</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.99995550356887264</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.9991723647949029</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.99989983944878902</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1.7929726117290211E-5</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.16018635213913859</v>
-      </c>
-      <c r="J7" s="5">
-        <v>3.470427189759168E-5</v>
-      </c>
-      <c r="K7" s="5">
-        <v>7.7328202476820062E-5</v>
-      </c>
-      <c r="L7" s="5">
-        <v>5.6016237187205857E-5</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1.475959083261463E-3</v>
-      </c>
-      <c r="N7" s="5">
-        <v>4.2343507314923983E-3</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1.0000147932406249</v>
-      </c>
-      <c r="P7" s="5">
-        <v>4.4146158084464168E-3</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>167.85810109114641</v>
-      </c>
-      <c r="R7" s="5">
-        <v>256.83603630652499</v>
-      </c>
-      <c r="S7" s="5" t="s">
+      <c r="C7" s="10">
+        <v>0.99999490398278024</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.99911771464628585</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.9999966566645605</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.99999934820796488</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.99999833765026125</v>
+      </c>
+      <c r="H7" s="10">
+        <v>4.7569083853161258E-6</v>
+      </c>
+      <c r="I7" s="10">
+        <v>8.2357464984105975E-4</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2.9226669389815762E-6</v>
+      </c>
+      <c r="K7" s="10">
+        <v>9.4537551722793106E-7</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1.9340212281047529E-6</v>
+      </c>
+      <c r="M7" s="10">
+        <v>8.5835948735269959E-5</v>
+      </c>
+      <c r="N7" s="10">
+        <v>2.1810337882105651E-3</v>
+      </c>
+      <c r="O7" s="10">
+        <v>1.000004892176531</v>
+      </c>
+      <c r="P7" s="10">
+        <v>2.2738849119370401E-3</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>122.51182519923979</v>
+      </c>
+      <c r="R7" s="10">
+        <v>182.23674061778161</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="5">
-        <v>0.99965221435607488</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.71711141791856048</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.99851429509375156</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.99971464238479812</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.99902613388429651</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2.064605817915382E-4</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.16793488247399521</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1.129771548366257E-3</v>
-      </c>
-      <c r="K8" s="5">
-        <v>1.60607086797549E-4</v>
-      </c>
-      <c r="L8" s="5">
-        <v>6.4518931758190284E-4</v>
-      </c>
-      <c r="M8" s="5">
-        <v>4.1529299636573784E-3</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1.436873626285688E-2</v>
-      </c>
-      <c r="O8" s="5">
-        <v>1.000203581840347</v>
-      </c>
-      <c r="P8" s="5">
-        <v>1.4980443112951221E-2</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>146.97080210198499</v>
-      </c>
-      <c r="R8" s="5">
-        <v>226.19773071841809</v>
-      </c>
-      <c r="S8" s="5" t="s">
+      <c r="C8" s="10">
+        <v>0.99999612949821259</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.99909285251284696</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.99998687044971368</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.9999915903256642</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.99999585560627169</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3.612943523189675E-6</v>
+      </c>
+      <c r="I8" s="10">
+        <v>8.4678236008472389E-4</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2.2772203277823439E-6</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3.8839436467753802E-6</v>
+      </c>
+      <c r="L8" s="10">
+        <v>3.0805819872788621E-6</v>
+      </c>
+      <c r="M8" s="10">
+        <v>1.6430088127227649E-4</v>
+      </c>
+      <c r="N8" s="10">
+        <v>1.900774453529317E-3</v>
+      </c>
+      <c r="O8" s="10">
+        <v>1.0000103213381</v>
+      </c>
+      <c r="P8" s="10">
+        <v>1.981694357161611E-3</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>91.061975474953059</v>
+      </c>
+      <c r="R8" s="10">
+        <v>131.28487769560371</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>31</v>
       </c>
     </row>
